--- a/Log5.xlsx
+++ b/Log5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A9BC90-F983-4686-BB6F-B45CF3F607DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C387D31-57DD-4747-A0B4-06733CE5DE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="3615" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="6330" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:N26"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,7 @@
         <v>3.8</v>
       </c>
       <c r="E4">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -593,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="F5">
         <v>100</v>

--- a/Log5.xlsx
+++ b/Log5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C387D31-57DD-4747-A0B4-06733CE5DE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AE48BD-369B-4039-8229-BDA423CB04FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="-24285" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
         <v>1.7</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -596,7 +596,7 @@
         <v>1.7</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <v>22</v>
@@ -622,7 +622,7 @@
         <v>1.8</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -648,7 +648,7 @@
         <v>1.8</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -674,7 +674,7 @@
         <v>1.8</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8">
         <v>18</v>

--- a/Log5.xlsx
+++ b/Log5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AE48BD-369B-4039-8229-BDA423CB04FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1E6FFC-FDEC-435F-AB82-C2F508316158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24285" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="2580" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
